--- a/biology/Histoire de la zoologie et de la botanique/Christopher_Brian_Stringer/Christopher_Brian_Stringer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christopher_Brian_Stringer/Christopher_Brian_Stringer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christopher Brian Stringer, dit Chris Stringer, né en 1947, membre de la Royal Society, est un paléoanthropologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille ouvrière du quartier de l'East End de Londres, Chris Stringer étudie à l'University College de Londres et passe une thèse en anatomie à l'université de Bristol.
 Chris Stringer est aujourd'hui directeur de recherche au musée d'histoire naturelle de Londres.
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Stringer est l'un des principaux promoteurs de la théorie de l'Origine africaine de l'homme moderne, qui fait presque consensus aujourd'hui dans la communauté scientifique, à l'exception notable de la Chine où de nombreux chercheurs défendent la théorie opposée de l'Origine multirégionale de l'homme moderne.
 </t>
@@ -574,7 +590,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Survivants - Pourquoi nous sommes les seuls humains sur terre, Londres, 2012, traduction française 2014 chez Gallimard - NRF Essais
 Homo britannicus, éd. Allen Lane, Londres, 2006
